--- a/biology/Botanique/Cèdre/Cèdre.xlsx
+++ b/biology/Botanique/Cèdre/Cèdre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A8dre</t>
+          <t>Cèdre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cedrus
 Cedrus, le Cèdre, est un genre de conifères de la famille des Pinacées, originaire du Moyen-Orient, d'Afrique du Nord et de l'Himalaya, acclimaté en Europe, comprenant des espèces d'arbres majestueux, à bois odorant, à cime conique ou étalée, très utilisées pour l'ornementation des parcs. Les branches de cette espèce sont étalées horizontalement et en plans superposés.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A8dre</t>
+          <t>Cèdre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cèdres sont de grands arbres, de 25 à 50 m de haut, dont la cime aiguë dans le jeune âge prend une forme tabulaire caractéristique à partir de 30 ans. Les branches sont très étalées à l'horizontale.
 Les « feuilles » sont des aiguilles persistantes, courtes (2 à 4 cm), un peu piquantes, mais plus longues (3 à 6 cm) et plus souples chez le Cèdre déodar ; elles sont réunies en rosettes sur des rameaux courts.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A8dre</t>
+          <t>Cèdre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,14 +565,16 @@
           <t>Les espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cèdres sont les suivantes :
 Cèdre du Liban, Cedrus libani cirque. Rich. ;
 Cèdre de l'Atlas, Cedrus atlantica (Endl.) G. Manetti ex Carrière ;
 Cèdre de Chypre, Cedrus brevifolia (Hook. f.) A. Henry, 1908 ;
 Cèdre de l'Himalaya ou Cèdre déodar, Cedrus deodara (Roxb. ex D. Don) G. Don.
-Cette clé de détermination est inspirée de celle de Pierre Quézel (1998)[1] :
+Cette clé de détermination est inspirée de celle de Pierre Quézel (1998) :
 Cônes femelles arrondis au sommet, grands (9-15 cm), à écailles glabres extérieurement ; aiguilles longues de 2,5-5 cm,  vert clair et souples ; rameaux terminaux pleureurs ; sommet pointu : Cedrus deodara
 Cônes femelles ombiliqués au sommet, plus petits et ne dépassant pas 10 cm de long, à écailles finement tomenteuses extérieurement ; aiguilles longues de 0,8-2,5 cm ; rameaux généralement dressés ; sommet tabulaire ou un peu arrondi
 Aiguilles longues de 0,8-1,5 cm larges de 1,5-2 mm, en général distinctement incurvées, coriaces et acuminées ; cônes femelles ne dépassant pas en général 8 cm de longueur : Cedrus brevifolia
@@ -595,7 +611,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A8dre</t>
+          <t>Cèdre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -613,7 +629,9 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cèdres servent de plante-hôte à certaines espèces de chenilles, par exemple Thaumetopoea spp. et Agrotis segetum (sur Cedrus deodara).
 </t>
@@ -626,7 +644,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C%C3%A8dre</t>
+          <t>Cèdre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -646,26 +664,209 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbres d'ornement
-Les cèdres ont été introduits en Europe où ils sont largement utilisés comme arbres d'ornement dans les parcs publics et les jardins. Il en existe de nombreuses variétés horticoles.
+          <t>Arbres d'ornement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cèdres ont été introduits en Europe où ils sont largement utilisés comme arbres d'ornement dans les parcs publics et les jardins. Il en existe de nombreuses variétés horticoles.
 Une des variétés les plus connues est le « cèdre bleu », Cedrus atlantica 'Glauca', qui existe aussi en forme d'arbre pleureur, Cedrus atlantica 'Glauca pendula'.
-Essence de reboisement
-Le cèdre de l'Atlas a été très employé au XIXe siècle, vers 1860, pour reboiser les pentes dénudées du mont Ventoux, du petit Luberon dans le sud du Vaucluse, constituant la plus grande forêt de cèdres d'Europe occidentale à la suite d'un pari entre deux ingénieurs forestiers en 1863 ; la cédraie s'y développe sur 500 hectares à 700 m d'altitude, du mont Aigoual, et des Pyrénées. Il constitue désormais, entre 800 et 1 000 m d'altitude, des peuplements remarquables qui se régénèrent abondamment.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cèdre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A8dre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Essence de reboisement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cèdre de l'Atlas a été très employé au XIXe siècle, vers 1860, pour reboiser les pentes dénudées du mont Ventoux, du petit Luberon dans le sud du Vaucluse, constituant la plus grande forêt de cèdres d'Europe occidentale à la suite d'un pari entre deux ingénieurs forestiers en 1863 ; la cédraie s'y développe sur 500 hectares à 700 m d'altitude, du mont Aigoual, et des Pyrénées. Il constitue désormais, entre 800 et 1 000 m d'altitude, des peuplements remarquables qui se régénèrent abondamment.
 Dans les années 1990, environ 20 000 hectares de cèdres ont été replantés dans le Sud de la France.
-Bois d'œuvre
-À ce sujet, il faut citer l'utilisation du bois de cèdre du Liban pour la construction du premier Temple de Jérusalem vers 976 av. J.-C. Ce bois a le mérite, outre son odeur particulière, d'éloigner les insectes et les vers. Le cèdre, erez en hébreu, est l'arbre le plus souvent cité dans la Bible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cèdre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A8dre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bois d'œuvre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À ce sujet, il faut citer l'utilisation du bois de cèdre du Liban pour la construction du premier Temple de Jérusalem vers 976 av. J.-C. Ce bois a le mérite, outre son odeur particulière, d'éloigner les insectes et les vers. Le cèdre, erez en hébreu, est l'arbre le plus souvent cité dans la Bible.
 C'est cependant un bois assez cassant, ce qui limite son emploi pour les charpentes.
 Ses propriétés d'imputrescibilité le faisaient employer aussi pour la construction navale et la fabrication de sarcophages.
 Le bois précieux du cèdre du Liban sert aux artisans pour la confection de boîtes à bijoux, de coffrets…
 Il ne faut pas confondre le bois de cèdre avec le bois d'appellation commerciale red cedar, qui est du thuya géant de Californie, utilisé essentiellement en recouvrement pour les murs extérieur (Bevel-siding) ou les toitures sous forme de tuiles (bardeaux).
-Les cônes : conservation
-Les cônes produits par le cèdre du Liban ont une forme très typée de petit tonneau ovoïde. Très décoratifs, il n'est pourtant pas facile de les faire sécher sans qu'ils se désagrègent, perdant toutes les écailles, il ne reste alors souvent qu'un petit bâton central. Il existe cependant une astuce pour les garder entiers : les ramasser encore verts, les faire se déshydrater dans un congélateur pendant au moins 6 mois et ensuite les tremper dans un mélange de colle blanche et d'eau (50 %) et les laisser sécher.
-Autres utilisations
-Le cèdre est réputé pour la construction des embauchoirs, pour ses propriétés d'absorption et son parfum afin de limiter les mauvaises odeurs.
-Cèdre et santé
-Essence et résine
-L'huile essentielle aromatique du cèdre de l'Atlas a des propriétés antifongique, antiseptique, cicatrisante, astringente et décongestionnante pour les voies respiratoires.[réf. nécessaire] L'huile essentielle de cèdre de l'Atlas possède également la propriété de régénération cutanée.[réf. nécessaire]
-Elle contient[2] des sesquiterpènes : béta-himachalène (48,03 %), alpha-himachalène (16,80 %), gamma-himachalène (10,24 %), ar-himachalène (0,50 %), delta-cadinène (1,67 %), alpha-cédrène (0,90 %), alpha-calacorène (0,68 %), (E)-alpha-bisabolène (0,59 %) et des cétones sesquiterpéniques : (E)-alpha-atlantone (2,97 %), (Z)-gamma-atlantone (0,83 %), (E)-gamma-atlantone (2,43 %), (Z)-alpha-atlantone (0,68 %). Elle ne doit pas être appliquée pure (risque d'irritation de la peau) ni chez la femme enceinte ni chez le jeune enfant, ni chez l'épileptique, ni à fortes doses (Cf. action abortive et neurotoxique sur le long terme).[réf. nécessaire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cèdre</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A8dre</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Les cônes : conservation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cônes produits par le cèdre du Liban ont une forme très typée de petit tonneau ovoïde. Très décoratifs, il n'est pourtant pas facile de les faire sécher sans qu'ils se désagrègent, perdant toutes les écailles, il ne reste alors souvent qu'un petit bâton central. Il existe cependant une astuce pour les garder entiers : les ramasser encore verts, les faire se déshydrater dans un congélateur pendant au moins 6 mois et ensuite les tremper dans un mélange de colle blanche et d'eau (50 %) et les laisser sécher.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cèdre</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A8dre</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autres utilisations</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cèdre est réputé pour la construction des embauchoirs, pour ses propriétés d'absorption et son parfum afin de limiter les mauvaises odeurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cèdre</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A8dre</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cèdre et santé</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Essence et résine</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'huile essentielle aromatique du cèdre de l'Atlas a des propriétés antifongique, antiseptique, cicatrisante, astringente et décongestionnante pour les voies respiratoires.[réf. nécessaire] L'huile essentielle de cèdre de l'Atlas possède également la propriété de régénération cutanée.[réf. nécessaire]
+Elle contient des sesquiterpènes : béta-himachalène (48,03 %), alpha-himachalène (16,80 %), gamma-himachalène (10,24 %), ar-himachalène (0,50 %), delta-cadinène (1,67 %), alpha-cédrène (0,90 %), alpha-calacorène (0,68 %), (E)-alpha-bisabolène (0,59 %) et des cétones sesquiterpéniques : (E)-alpha-atlantone (2,97 %), (Z)-gamma-atlantone (0,83 %), (E)-gamma-atlantone (2,43 %), (Z)-alpha-atlantone (0,68 %). Elle ne doit pas être appliquée pure (risque d'irritation de la peau) ni chez la femme enceinte ni chez le jeune enfant, ni chez l'épileptique, ni à fortes doses (Cf. action abortive et neurotoxique sur le long terme).[réf. nécessaire]
 On la dit aussi relaxante, drainante, lymphotonique et diurétique, lipolytique (élimination des graisses). Elle contribuerait à la qualité du réseau artériel et du cuir chevelu (antipelliculaire, comme l'huile de cade).[réf. nécessaire]
 Elle éloigne les moustiques et mites.
 Il ne faut pas la confondre avec l’huile de cèdre (en) utilisée pour l'observation microscopique, qui est tirée du genévrier de Virginie, parfois appelé  « cèdre de Virginie ».
@@ -675,62 +876,66 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>C%C3%A8dre</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/C%C3%A8dre</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cèdre</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A8dre</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Allergie au pollen de cèdre</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pollen de cèdre est plutôt gros (90 à 50 µm) mais il peut être transporté sur de grandes distances. Il n'est pas réputé allergène. Une certaine confusion est entretenue par le fait que les Anglo-Saxons appellent cèdres énormément d'arbres qui n'en sont pas. Ainsi au Japon, un nouveau type d'allergie est en forte augmentation où elle touche maintenant plusieurs millions de personnes, due au Cryptomère du Japon (Cryptomeria japonica) appelé de façon erronée « Cèdre du Japon ».
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>C%C3%A8dre</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/C%C3%A8dre</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cèdre</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A8dre</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Les autres arbres appelés « cèdre »</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>D'autres espèces d'arbres sont fréquemment nommées « cèdre », bien qu'elles ne soient pas apparentées au genre Cedrus. Les anglophones ont pour habitude d'appeler cedar (cèdre) de nombreux conifères de la famille des Cupressacées, du fait de leur bois léger, odorant et durable. Ces noms sont parfois traduits littéralement en français, bien qu'il existe généralement des noms français plus usités et plus caractéristiques des genres. Des arbres feuillus, en particulier dans la famille des Méliacées, portent aussi ce nom pour les mêmes raisons. Le « Cèdre de Sibérie » désigne quant à lui un pin blanc (genre Pinus, Pinacées) lorsque son nom est traduit du russe. La liste ci-dessous n'est pas exhaustive :
 Cèdre rouge occidental, Cèdre de l'Ouest ou Thuya géant de Californie (Thuja plicata).
@@ -748,97 +953,103 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>C%C3%A8dre</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/C%C3%A8dre</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cèdre</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A8dre</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les noces de cèdre symbolisent les 49 ans de mariage dans le folklore français[3].
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les noces de cèdre symbolisent les 49 ans de mariage dans le folklore français.
 			Le cèdre sur le drapeau du Liban.
 			Cèdre du liban (Barouk, 2005).
-Le cèdre est comme le cyprès apprécié pour sa solidité ; on l'aimait aussi autrefois pour l'odeur de sa résine. On l’utilisait en Égypte pour construire des navires, des meubles, des sarcophages et divers ustensiles. Le roi Salomon l’employa pour bâtir le temple de Jérusalem.  « Le juste pousse comme un palmier, s’étend comme un cèdre du Liban » lit-on dans le psaume XCII, 13. Le père de l’église Origène d’Alexandrie (185–254) se servit de son image à des fins d’instruction morale :  « le cèdre ne pourrit pas. Faire de cèdre les poutres de nos demeures, c’est préserver l’âme de la corruption ». Le patriarche Cyrille d’Alexandrie (380–444) comparait quant à lui le bois de cèdre à la chair du Christ qui resta imputrescible. Seule la colère de Dieu est plus forte que le cèdre :  « la voix du seigneur casse les cèdres, le Seigneur fracasse les cèdres du Liban » (psaume XXIX,5)[4].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>C%C3%A8dre</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/C%C3%A8dre</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+Le cèdre est comme le cyprès apprécié pour sa solidité ; on l'aimait aussi autrefois pour l'odeur de sa résine. On l’utilisait en Égypte pour construire des navires, des meubles, des sarcophages et divers ustensiles. Le roi Salomon l’employa pour bâtir le temple de Jérusalem.  « Le juste pousse comme un palmier, s’étend comme un cèdre du Liban » lit-on dans le psaume XCII, 13. Le père de l’église Origène d’Alexandrie (185–254) se servit de son image à des fins d’instruction morale :  « le cèdre ne pourrit pas. Faire de cèdre les poutres de nos demeures, c’est préserver l’âme de la corruption ». Le patriarche Cyrille d’Alexandrie (380–444) comparait quant à lui le bois de cèdre à la chair du Christ qui resta imputrescible. Seule la colère de Dieu est plus forte que le cèdre :  « la voix du seigneur casse les cèdres, le Seigneur fracasse les cèdres du Liban » (psaume XXIX,5).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cèdre</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A8dre</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Calendrier républicain</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Le cèdre voit son nom attribué au 13e jour du mois de frimaire du calendrier républicain ou révolutionnaire français[5], généralement chaque 3 décembre du calendrier grégorien.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>C%C3%A8dre</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/C%C3%A8dre</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Le cèdre voit son nom attribué au 13e jour du mois de frimaire du calendrier républicain ou révolutionnaire français, généralement chaque 3 décembre du calendrier grégorien.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cèdre</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A8dre</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The International Fossil Plant Names Index (IFPNI)                (11 novembre 2023)[6] :
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The International Fossil Plant Names Index (IFPNI)                (11 novembre 2023) :
 Cedrus admirabilis
 Cedrus angusta
 Cedrus baltica
